--- a/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E0957-30ED-49C1-9D6F-E3E2F8BC2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4935D3E6-E825-42E5-AFEE-40BC74A17FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1515" windowWidth="20205" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="855" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>更新日時</t>
   </si>
@@ -400,6 +400,10 @@
   </si>
   <si>
     <t>1.1.権限マスタ一覧取得API</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能一覧シート最新化</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -791,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -913,6 +917,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -927,44 +935,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -974,29 +984,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,7 +1226,10 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1289,681 +1299,748 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="45"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="45">
+      <c r="B4" s="47">
         <v>44360</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="41" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
+      <c r="B5" s="76">
+        <v>45088</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43">
+        <f>IF(B5="","",F4+0.01)</f>
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="43" t="str">
+        <f t="shared" ref="F6:F25" si="0">IF(B6="","",F5+0.01)</f>
+        <v/>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="45"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="45"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="45"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="45"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="45"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="45"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="45"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="45"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="45"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="45"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="45"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -2026,6 +2103,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2035,66 +2172,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,8 +2192,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="49" width="3.7109375" style="74" customWidth="1"/>
-    <col min="50" max="16384" width="14.42578125" style="74"/>
+    <col min="1" max="49" width="3.7109375" style="41" customWidth="1"/>
+    <col min="50" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" customHeight="1">
@@ -2226,7 +2303,7 @@
     </row>
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="2"/>
@@ -4162,297 +4239,297 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="49" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="42"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
+      <c r="BK7" s="44"/>
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44"/>
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="45"/>
       <c r="BP7" s="2"/>
     </row>
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="49" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="45"/>
       <c r="BP8" s="2"/>
     </row>
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="49" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="44"/>
+      <c r="BC9" s="44"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="44"/>
+      <c r="BK9" s="44"/>
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="44"/>
+      <c r="BN9" s="44"/>
+      <c r="BO9" s="45"/>
       <c r="BP9" s="2"/>
     </row>
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="51" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="51"/>
-      <c r="BN10" s="51"/>
-      <c r="BO10" s="51"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="66"/>
+      <c r="BD10" s="66"/>
+      <c r="BE10" s="66"/>
+      <c r="BF10" s="66"/>
+      <c r="BG10" s="66"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="66"/>
+      <c r="BJ10" s="66"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
       <c r="BP10" s="35"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4531,231 +4608,231 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="53" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="67"/>
-      <c r="BI12" s="67"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="43"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="45"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="53" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="67"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="67"/>
-      <c r="BK13" s="67"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="67"/>
-      <c r="BN13" s="67"/>
-      <c r="BO13" s="43"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="45"/>
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="53" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="67"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="67"/>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="67"/>
-      <c r="BN14" s="67"/>
-      <c r="BO14" s="43"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="59"/>
+      <c r="BN14" s="59"/>
+      <c r="BO14" s="45"/>
       <c r="BP14" s="2"/>
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -4824,162 +4901,162 @@
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="44" t="s">
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="68" t="s">
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="43"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="45"/>
       <c r="AH16" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="44" t="s">
+      <c r="AK16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="42"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="42"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="43"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="44"/>
+      <c r="BO16" s="45"/>
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="42"/>
-      <c r="BF17" s="42"/>
-      <c r="BG17" s="42"/>
-      <c r="BH17" s="42"/>
-      <c r="BI17" s="42"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="42"/>
-      <c r="BM17" s="42"/>
-      <c r="BN17" s="42"/>
-      <c r="BO17" s="43"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="44"/>
+      <c r="BE17" s="44"/>
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="44"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="44"/>
+      <c r="BK17" s="44"/>
+      <c r="BL17" s="44"/>
+      <c r="BM17" s="44"/>
+      <c r="BN17" s="44"/>
+      <c r="BO17" s="45"/>
       <c r="BP17" s="2"/>
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -5048,161 +5125,161 @@
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="44" t="s">
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="68" t="s">
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="43"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="45"/>
       <c r="AH19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="44" t="s">
+      <c r="AK19" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="42"/>
-      <c r="BN19" s="42"/>
-      <c r="BO19" s="43"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
+      <c r="BD19" s="44"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="44"/>
+      <c r="BG19" s="44"/>
+      <c r="BH19" s="44"/>
+      <c r="BI19" s="44"/>
+      <c r="BJ19" s="44"/>
+      <c r="BK19" s="44"/>
+      <c r="BL19" s="44"/>
+      <c r="BM19" s="44"/>
+      <c r="BN19" s="44"/>
+      <c r="BO19" s="45"/>
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="66" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="49">
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="58">
         <v>1</v>
       </c>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="70" t="s">
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="42"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="43"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="44"/>
+      <c r="BH20" s="44"/>
+      <c r="BI20" s="44"/>
+      <c r="BJ20" s="44"/>
+      <c r="BK20" s="44"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="45"/>
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5224,133 +5301,133 @@
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="66" t="s">
+      <c r="Q21" s="62"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="64"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="66" t="s">
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="67"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="67"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="67"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="43"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="45"/>
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="43"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="44"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="44"/>
+      <c r="BM22" s="44"/>
+      <c r="BN22" s="44"/>
+      <c r="BO22" s="45"/>
       <c r="BP22" s="2"/>
     </row>
     <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5372,207 +5449,207 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="63" t="s">
+      <c r="Q23" s="70"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="42"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="43"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="44"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="44"/>
+      <c r="BI23" s="44"/>
+      <c r="BJ23" s="44"/>
+      <c r="BK23" s="44"/>
+      <c r="BL23" s="44"/>
+      <c r="BM23" s="44"/>
+      <c r="BN23" s="44"/>
+      <c r="BO23" s="45"/>
       <c r="BP23" s="2"/>
     </row>
     <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="42"/>
-      <c r="BM24" s="42"/>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="43"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="45"/>
       <c r="BP24" s="2"/>
     </row>
     <row r="25" spans="1:68" ht="51" customHeight="1" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="49">
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="58">
         <v>2</v>
       </c>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="70" t="s">
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="42"/>
-      <c r="BL25" s="42"/>
-      <c r="BM25" s="42"/>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="43"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="45"/>
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="16.5">
@@ -5790,158 +5867,158 @@
     </row>
     <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="58" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="58" t="s">
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="71" t="s">
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="42"/>
-      <c r="BL29" s="42"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="43"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="45"/>
       <c r="BP29" s="2"/>
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="57"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
       <c r="AB30" s="57"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
       <c r="AK30" s="57"/>
-      <c r="AL30" s="72" t="s">
+      <c r="AL30" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="72" t="s">
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="72" t="s">
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="43"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="44"/>
+      <c r="BL30" s="44"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="45"/>
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="69.75" customHeight="1" outlineLevel="1">
@@ -5950,75 +6027,75 @@
         <f ca="1">MAX(B$29:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="50" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="43"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="43"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="44"/>
+      <c r="BH31" s="44"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="44"/>
+      <c r="BK31" s="44"/>
+      <c r="BL31" s="44"/>
+      <c r="BM31" s="44"/>
+      <c r="BN31" s="44"/>
+      <c r="BO31" s="45"/>
       <c r="BP31" s="2"/>
     </row>
     <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6027,75 +6104,75 @@
         <f ca="1">MAX(B$29:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="49" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="43"/>
-      <c r="AU32" s="47"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="43"/>
-      <c r="AZ32" s="48"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="42"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="43"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
+      <c r="BG32" s="44"/>
+      <c r="BH32" s="44"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="44"/>
+      <c r="BL32" s="44"/>
+      <c r="BM32" s="44"/>
+      <c r="BN32" s="44"/>
+      <c r="BO32" s="45"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -7516,11 +7593,60 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:K30"/>
+    <mergeCell ref="L29:AB30"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
     <mergeCell ref="AU30:AY30"/>
     <mergeCell ref="AZ30:BO30"/>
     <mergeCell ref="AC29:AK30"/>
@@ -7537,22 +7663,15 @@
     <mergeCell ref="AK24:BO24"/>
     <mergeCell ref="AK25:BO25"/>
     <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AL30:AT30"/>
     <mergeCell ref="AK17:BO17"/>
     <mergeCell ref="AK20:BO20"/>
     <mergeCell ref="AK19:BO19"/>
     <mergeCell ref="AL29:BO29"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:BO13"/>
     <mergeCell ref="C16:P16"/>
     <mergeCell ref="C17:P17"/>
     <mergeCell ref="Q17:W17"/>
@@ -7560,48 +7679,6 @@
     <mergeCell ref="AE17:AG17"/>
     <mergeCell ref="AH17:AJ17"/>
     <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:K30"/>
-    <mergeCell ref="L29:AB30"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4935D3E6-E825-42E5-AFEE-40BC74A17FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55109D32-9D9F-4353-8CF3-B54D17098126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="855" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -935,46 +935,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -984,26 +985,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1226,7 +1226,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="76">
+      <c r="B5" s="49">
         <v>45088</v>
       </c>
       <c r="C5" s="44"/>
@@ -2103,12 +2103,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2118,60 +2166,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2186,9 +2186,7 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3801,7 +3799,7 @@
   </sheetPr>
   <dimension ref="A1:BP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4239,7 +4237,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="71" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="44"/>
@@ -4247,7 +4245,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="52" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="44"/>
@@ -4313,7 +4311,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="71" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="44"/>
@@ -4321,7 +4319,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="52" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="44"/>
@@ -4387,7 +4385,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="71" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="44"/>
@@ -4395,7 +4393,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="52" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="44"/>
@@ -4461,75 +4459,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
-      <c r="BC10" s="66"/>
-      <c r="BD10" s="66"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+      <c r="BD10" s="54"/>
+      <c r="BE10" s="54"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="54"/>
+      <c r="BH10" s="54"/>
+      <c r="BI10" s="54"/>
+      <c r="BJ10" s="54"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
       <c r="BP10" s="35"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4608,73 +4606,73 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="70"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="70"/>
+      <c r="BN12" s="70"/>
       <c r="BO12" s="45"/>
       <c r="BP12" s="2"/>
     </row>
@@ -4682,73 +4680,73 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="70"/>
+      <c r="BJ13" s="70"/>
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="70"/>
+      <c r="BM13" s="70"/>
+      <c r="BN13" s="70"/>
       <c r="BO13" s="45"/>
       <c r="BP13" s="2"/>
     </row>
@@ -4756,83 +4754,83 @@
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
+      <c r="BH14" s="70"/>
+      <c r="BI14" s="70"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
+      <c r="BL14" s="70"/>
+      <c r="BM14" s="70"/>
+      <c r="BN14" s="70"/>
       <c r="BO14" s="45"/>
       <c r="BP14" s="2"/>
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -4935,7 +4933,7 @@
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="45"/>
-      <c r="AE16" s="51" t="s">
+      <c r="AE16" s="71" t="s">
         <v>20</v>
       </c>
       <c r="AF16" s="44"/>
@@ -4983,7 +4981,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="58"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
@@ -4997,27 +4995,27 @@
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="62"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
-      <c r="X17" s="62"/>
+      <c r="X17" s="69"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="58"/>
+      <c r="AE17" s="52"/>
       <c r="AF17" s="44"/>
       <c r="AG17" s="45"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="62"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="69"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
@@ -5052,11 +5050,11 @@
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -5159,7 +5157,7 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="51" t="s">
+      <c r="AE19" s="71" t="s">
         <v>20</v>
       </c>
       <c r="AF19" s="44"/>
@@ -5207,30 +5205,30 @@
     <row r="20" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="62"/>
+      <c r="Q20" s="69"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="62" t="s">
+      <c r="X20" s="69" t="s">
         <v>37</v>
       </c>
       <c r="Y20" s="44"/>
@@ -5239,15 +5237,15 @@
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="58">
+      <c r="AE20" s="52">
         <v>1</v>
       </c>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="63" t="s">
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="75" t="s">
         <v>78</v>
       </c>
       <c r="AL20" s="44"/>
@@ -5301,14 +5299,14 @@
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="62"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="62" t="s">
+      <c r="X21" s="69" t="s">
         <v>44</v>
       </c>
       <c r="Y21" s="44"/>
@@ -5317,44 +5315,44 @@
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="58"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="62" t="s">
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="70"/>
+      <c r="BM21" s="70"/>
+      <c r="BN21" s="70"/>
       <c r="BO21" s="45"/>
       <c r="BP21" s="2"/>
     </row>
@@ -5362,42 +5360,42 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="70"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="62"/>
+      <c r="X22" s="69"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="58"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="62"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="69"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -5449,29 +5447,29 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="70"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="62"/>
+      <c r="X23" s="69"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="58"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="67" t="s">
+      <c r="AH23" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="62"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="69"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -5508,42 +5506,42 @@
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="70"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="45"/>
-      <c r="X24" s="62"/>
+      <c r="X24" s="69"/>
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="45"/>
-      <c r="AE24" s="58"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="45"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="62"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="69"/>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -5580,44 +5578,44 @@
       <c r="A25" s="2"/>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="70"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
       <c r="W25" s="45"/>
-      <c r="X25" s="62"/>
+      <c r="X25" s="69"/>
       <c r="Y25" s="44"/>
       <c r="Z25" s="44"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="45"/>
-      <c r="AE25" s="58">
+      <c r="AE25" s="52">
         <v>2</v>
       </c>
       <c r="AF25" s="44"/>
       <c r="AG25" s="45"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="63" t="s">
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="75" t="s">
         <v>92</v>
       </c>
       <c r="AL25" s="44"/>
@@ -5867,51 +5865,51 @@
     </row>
     <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="53" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="53" t="s">
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="64" t="s">
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AM29" s="44"/>
@@ -5947,43 +5945,43 @@
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="52" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="73" t="s">
         <v>13</v>
       </c>
       <c r="AM30" s="44"/>
@@ -5994,14 +5992,14 @@
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="45"/>
-      <c r="AU30" s="52" t="s">
+      <c r="AU30" s="73" t="s">
         <v>14</v>
       </c>
       <c r="AV30" s="44"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
       <c r="AY30" s="45"/>
-      <c r="AZ30" s="52" t="s">
+      <c r="AZ30" s="73" t="s">
         <v>15</v>
       </c>
       <c r="BA30" s="44"/>
@@ -6027,7 +6025,7 @@
         <f ca="1">MAX(B$29:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="44"/>
@@ -6038,26 +6036,26 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="45"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="58"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="52"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
@@ -6066,7 +6064,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
       <c r="AK31" s="45"/>
-      <c r="AL31" s="72"/>
+      <c r="AL31" s="50"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
       <c r="AO31" s="44"/>
@@ -6075,12 +6073,12 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="72"/>
+      <c r="AU31" s="50"/>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="73"/>
+      <c r="AZ31" s="51"/>
       <c r="BA31" s="44"/>
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
@@ -6104,37 +6102,37 @@
         <f ca="1">MAX(B$29:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="58" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="58"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="52"/>
       <c r="AD32" s="44"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
@@ -6143,7 +6141,7 @@
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
       <c r="AK32" s="45"/>
-      <c r="AL32" s="72"/>
+      <c r="AL32" s="50"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="44"/>
       <c r="AO32" s="44"/>
@@ -6152,12 +6150,12 @@
       <c r="AR32" s="44"/>
       <c r="AS32" s="44"/>
       <c r="AT32" s="45"/>
-      <c r="AU32" s="72"/>
+      <c r="AU32" s="50"/>
       <c r="AV32" s="44"/>
       <c r="AW32" s="44"/>
       <c r="AX32" s="44"/>
       <c r="AY32" s="45"/>
-      <c r="AZ32" s="73"/>
+      <c r="AZ32" s="51"/>
       <c r="BA32" s="44"/>
       <c r="BB32" s="44"/>
       <c r="BC32" s="44"/>
@@ -7593,60 +7591,22 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:K30"/>
-    <mergeCell ref="L29:AB30"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AL29:BO29"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="AU30:AY30"/>
     <mergeCell ref="AZ30:BO30"/>
     <mergeCell ref="AC29:AK30"/>
@@ -7663,22 +7623,60 @@
     <mergeCell ref="AK24:BO24"/>
     <mergeCell ref="AK25:BO25"/>
     <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AL29:BO29"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:K30"/>
+    <mergeCell ref="L29:AB30"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A5BD6-CFBB-4771-9019-4BF24CE39F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C546979D-E494-428D-9AC9-108BD1970D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="210" windowWidth="19620" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>エンドポイントURL</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>Authorization</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -428,6 +424,10 @@
     <rPh sb="8" eb="9">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エンドポイント</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -947,6 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -956,31 +959,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -990,41 +1006,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1320,19 +1320,19 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="43"/>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>44360</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="43"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>45088</v>
       </c>
       <c r="C5" s="43"/>
@@ -1404,7 +1404,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="44"/>
       <c r="J5" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="48">
+      <c r="B6" s="45">
         <v>45880</v>
       </c>
       <c r="C6" s="43"/>
@@ -1440,7 +1440,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="44"/>
       <c r="J6" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -2128,12 +2128,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2143,60 +2191,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2327,7 +2327,7 @@
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4262,7 +4262,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="70" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="43"/>
@@ -4270,7 +4270,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="43"/>
@@ -4336,7 +4336,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="43"/>
@@ -4344,7 +4344,7 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="43"/>
@@ -4410,7 +4410,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="43"/>
@@ -4418,7 +4418,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="51" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="43"/>
@@ -4484,75 +4484,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="51" t="s">
-        <v>68</v>
+      <c r="C10" s="70" t="s">
+        <v>93</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>84</v>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="53" t="s">
+        <v>83</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
+      <c r="BO10" s="53"/>
       <c r="BP10" s="34"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4631,83 +4631,83 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="65"/>
-      <c r="BL12" s="65"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69"/>
       <c r="BO12" s="44"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -4776,7 +4776,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="43"/>
@@ -4792,7 +4792,7 @@
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="46" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="43"/>
@@ -4801,7 +4801,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
       <c r="W14" s="44"/>
-      <c r="X14" s="45" t="s">
+      <c r="X14" s="46" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="43"/>
@@ -4810,7 +4810,7 @@
       <c r="AB14" s="43"/>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
-      <c r="AE14" s="51" t="s">
+      <c r="AE14" s="70" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="43"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="45" t="s">
+      <c r="AK14" s="46" t="s">
         <v>30</v>
       </c>
       <c r="AL14" s="43"/>
@@ -4858,7 +4858,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -4872,27 +4872,27 @@
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="53"/>
+      <c r="Q15" s="68"/>
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
-      <c r="X15" s="53"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
-      <c r="AE15" s="56"/>
+      <c r="AE15" s="51"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="44"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="53"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
@@ -4927,11 +4927,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5000,7 +5000,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="43"/>
@@ -5016,7 +5016,7 @@
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="44"/>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="46" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="43"/>
@@ -5025,7 +5025,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="45" t="s">
+      <c r="X17" s="46" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="43"/>
@@ -5034,7 +5034,7 @@
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
       <c r="AD17" s="44"/>
-      <c r="AE17" s="51" t="s">
+      <c r="AE17" s="70" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="43"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="45" t="s">
+      <c r="AK17" s="46" t="s">
         <v>30</v>
       </c>
       <c r="AL17" s="43"/>
@@ -5082,23 +5082,23 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="56" t="s">
-        <v>71</v>
+      <c r="C18" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="53" t="s">
+      <c r="Q18" s="68" t="s">
         <v>32</v>
       </c>
       <c r="R18" s="43"/>
@@ -5107,7 +5107,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
-      <c r="X18" s="53" t="s">
+      <c r="X18" s="68" t="s">
         <v>33</v>
       </c>
       <c r="Y18" s="43"/>
@@ -5116,16 +5116,16 @@
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
       <c r="AD18" s="44"/>
-      <c r="AE18" s="56">
+      <c r="AE18" s="51">
         <v>1</v>
       </c>
       <c r="AF18" s="43"/>
       <c r="AG18" s="44"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="54" t="s">
-        <v>74</v>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="74" t="s">
+        <v>73</v>
       </c>
       <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
@@ -5163,7 +5163,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5178,14 +5178,14 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="53"/>
+      <c r="Q19" s="68"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
-      <c r="X19" s="53" t="s">
+      <c r="X19" s="68" t="s">
         <v>40</v>
       </c>
       <c r="Y19" s="43"/>
@@ -5194,44 +5194,44 @@
       <c r="AB19" s="43"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="44"/>
-      <c r="AE19" s="56"/>
+      <c r="AE19" s="51"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="44"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="53" t="s">
-        <v>78</v>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="68" t="s">
+        <v>77</v>
       </c>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
       <c r="BO19" s="44"/>
       <c r="BP19" s="2"/>
     </row>
@@ -5239,23 +5239,23 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="56" t="s">
-        <v>73</v>
+      <c r="D20" s="51" t="s">
+        <v>72</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="70" t="s">
-        <v>91</v>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
@@ -5263,20 +5263,20 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
-      <c r="X20" s="53"/>
+      <c r="X20" s="68"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="44"/>
-      <c r="AE20" s="56"/>
+      <c r="AE20" s="51"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="44"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="53"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="68"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
@@ -5313,7 +5313,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -5328,29 +5328,29 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="70"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
       <c r="T21" s="43"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
-      <c r="X21" s="53"/>
+      <c r="X21" s="68"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="44"/>
-      <c r="AE21" s="56"/>
+      <c r="AE21" s="51"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="44"/>
-      <c r="AH21" s="57" t="s">
-        <v>85</v>
+      <c r="AH21" s="65" t="s">
+        <v>84</v>
       </c>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="53"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="68"/>
       <c r="AL21" s="43"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
@@ -5387,23 +5387,23 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="56" t="s">
-        <v>76</v>
+      <c r="D22" s="51" t="s">
+        <v>75</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="70" t="s">
-        <v>91</v>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
@@ -5411,20 +5411,20 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="44"/>
-      <c r="X22" s="53"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="56"/>
+      <c r="AE22" s="51"/>
       <c r="AF22" s="43"/>
       <c r="AG22" s="44"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="53"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="68"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
@@ -5461,22 +5461,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="24"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="56" t="s">
-        <v>77</v>
+      <c r="D23" s="51" t="s">
+        <v>76</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="70" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>32</v>
       </c>
       <c r="R23" s="43"/>
@@ -5485,23 +5485,23 @@
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
       <c r="W23" s="44"/>
-      <c r="X23" s="53"/>
+      <c r="X23" s="68"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
       <c r="AC23" s="43"/>
       <c r="AD23" s="44"/>
-      <c r="AE23" s="56">
+      <c r="AE23" s="51">
         <v>2</v>
       </c>
       <c r="AF23" s="43"/>
       <c r="AG23" s="44"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="54" t="s">
-        <v>88</v>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="74" t="s">
+        <v>87</v>
       </c>
       <c r="AL23" s="43"/>
       <c r="AM23" s="43"/>
@@ -5750,51 +5750,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
       <c r="AC27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="55" t="s">
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="75" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="43"/>
@@ -5830,43 +5830,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="52" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="72" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="43"/>
@@ -5877,14 +5877,14 @@
       <c r="AR28" s="43"/>
       <c r="AS28" s="43"/>
       <c r="AT28" s="44"/>
-      <c r="AU28" s="52" t="s">
+      <c r="AU28" s="72" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="43"/>
       <c r="AW28" s="43"/>
       <c r="AX28" s="43"/>
       <c r="AY28" s="44"/>
-      <c r="AZ28" s="52" t="s">
+      <c r="AZ28" s="72" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="43"/>
@@ -5910,8 +5910,8 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>86</v>
+      <c r="C29" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -5921,26 +5921,26 @@
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="74" t="s">
-        <v>87</v>
+      <c r="L29" s="52" t="s">
+        <v>86</v>
       </c>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="56"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="51"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
@@ -5949,7 +5949,7 @@
       <c r="AI29" s="43"/>
       <c r="AJ29" s="43"/>
       <c r="AK29" s="44"/>
-      <c r="AL29" s="72"/>
+      <c r="AL29" s="49"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
@@ -5958,12 +5958,12 @@
       <c r="AR29" s="43"/>
       <c r="AS29" s="43"/>
       <c r="AT29" s="44"/>
-      <c r="AU29" s="72"/>
+      <c r="AU29" s="49"/>
       <c r="AV29" s="43"/>
       <c r="AW29" s="43"/>
       <c r="AX29" s="43"/>
       <c r="AY29" s="44"/>
-      <c r="AZ29" s="73"/>
+      <c r="AZ29" s="50"/>
       <c r="BA29" s="43"/>
       <c r="BB29" s="43"/>
       <c r="BC29" s="43"/>
@@ -5987,37 +5987,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="56"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="51"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
@@ -6026,7 +6026,7 @@
       <c r="AI30" s="43"/>
       <c r="AJ30" s="43"/>
       <c r="AK30" s="44"/>
-      <c r="AL30" s="72"/>
+      <c r="AL30" s="49"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
@@ -6035,12 +6035,12 @@
       <c r="AR30" s="43"/>
       <c r="AS30" s="43"/>
       <c r="AT30" s="44"/>
-      <c r="AU30" s="72"/>
+      <c r="AU30" s="49"/>
       <c r="AV30" s="43"/>
       <c r="AW30" s="43"/>
       <c r="AX30" s="43"/>
       <c r="AY30" s="44"/>
-      <c r="AZ30" s="73"/>
+      <c r="AZ30" s="50"/>
       <c r="BA30" s="43"/>
       <c r="BB30" s="43"/>
       <c r="BC30" s="43"/>
@@ -6274,7 +6274,7 @@
     <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6419,7 +6419,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6563,7 +6563,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -7476,56 +7476,22 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="Q17:W17"/>
     <mergeCell ref="AU28:AY28"/>
     <mergeCell ref="AZ28:BO28"/>
     <mergeCell ref="AC27:AK28"/>
@@ -7542,22 +7508,56 @@
     <mergeCell ref="AK22:BO22"/>
     <mergeCell ref="AK23:BO23"/>
     <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7730,7 +7730,7 @@
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -7964,7 +7964,7 @@
     <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C546979D-E494-428D-9AC9-108BD1970D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8263427-4923-4966-8220-498B7ED01F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="255" windowWidth="21435" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -947,9 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -959,44 +956,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1006,25 +990,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1247,7 +1247,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="43"/>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>44360</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="43"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="45">
+      <c r="B5" s="48">
         <v>45088</v>
       </c>
       <c r="C5" s="43"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="45">
+      <c r="B6" s="48">
         <v>45880</v>
       </c>
       <c r="C6" s="43"/>
@@ -2128,6 +2128,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2137,66 +2197,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3824,7 +3824,7 @@
   </sheetPr>
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4262,7 +4262,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="43"/>
@@ -4270,7 +4270,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="56" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="43"/>
@@ -4336,7 +4336,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="43"/>
@@ -4344,7 +4344,7 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="56" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="43"/>
@@ -4410,7 +4410,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="43"/>
@@ -4418,7 +4418,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="56" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="43"/>
@@ -4484,75 +4484,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="53" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
-      <c r="BM10" s="53"/>
-      <c r="BN10" s="53"/>
-      <c r="BO10" s="53"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="69"/>
+      <c r="BK10" s="69"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="69"/>
+      <c r="BN10" s="69"/>
+      <c r="BO10" s="69"/>
       <c r="BP10" s="34"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4631,83 +4631,83 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="69"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="69"/>
-      <c r="BK12" s="69"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="65"/>
       <c r="BO12" s="44"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -4776,7 +4776,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="43"/>
@@ -4792,7 +4792,7 @@
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="43"/>
@@ -4801,7 +4801,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
       <c r="W14" s="44"/>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="45" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="43"/>
@@ -4810,7 +4810,7 @@
       <c r="AB14" s="43"/>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
-      <c r="AE14" s="70" t="s">
+      <c r="AE14" s="51" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="43"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="46" t="s">
+      <c r="AK14" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AL14" s="43"/>
@@ -4858,7 +4858,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="51"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -4872,27 +4872,27 @@
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="68"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
-      <c r="X15" s="68"/>
+      <c r="X15" s="53"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
-      <c r="AE15" s="51"/>
+      <c r="AE15" s="56"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="44"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="68"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="53"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
@@ -4927,11 +4927,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5000,7 +5000,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="43"/>
@@ -5016,7 +5016,7 @@
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="44"/>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="45" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="43"/>
@@ -5025,7 +5025,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="46" t="s">
+      <c r="X17" s="45" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="43"/>
@@ -5034,7 +5034,7 @@
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
       <c r="AD17" s="44"/>
-      <c r="AE17" s="70" t="s">
+      <c r="AE17" s="51" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="43"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="46" t="s">
+      <c r="AK17" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AL17" s="43"/>
@@ -5082,23 +5082,23 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="68" t="s">
+      <c r="Q18" s="53" t="s">
         <v>32</v>
       </c>
       <c r="R18" s="43"/>
@@ -5107,7 +5107,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
-      <c r="X18" s="68" t="s">
+      <c r="X18" s="53" t="s">
         <v>33</v>
       </c>
       <c r="Y18" s="43"/>
@@ -5116,15 +5116,15 @@
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
       <c r="AD18" s="44"/>
-      <c r="AE18" s="51">
+      <c r="AE18" s="56">
         <v>1</v>
       </c>
       <c r="AF18" s="43"/>
       <c r="AG18" s="44"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="74" t="s">
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AL18" s="43"/>
@@ -5178,14 +5178,14 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="68"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
-      <c r="X19" s="68" t="s">
+      <c r="X19" s="53" t="s">
         <v>40</v>
       </c>
       <c r="Y19" s="43"/>
@@ -5194,44 +5194,44 @@
       <c r="AB19" s="43"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="44"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="56"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="44"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="68" t="s">
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
-      <c r="BM19" s="69"/>
-      <c r="BN19" s="69"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
       <c r="BO19" s="44"/>
       <c r="BP19" s="2"/>
     </row>
@@ -5239,22 +5239,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="70" t="s">
         <v>90</v>
       </c>
       <c r="R20" s="43"/>
@@ -5263,20 +5263,20 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
-      <c r="X20" s="68"/>
+      <c r="X20" s="53"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="44"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="56"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="44"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="68"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="53"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
@@ -5328,29 +5328,29 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="57"/>
+      <c r="Q21" s="70"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
       <c r="T21" s="43"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
-      <c r="X21" s="68"/>
+      <c r="X21" s="53"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="44"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="56"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="44"/>
-      <c r="AH21" s="65" t="s">
+      <c r="AH21" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="68"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="53"/>
       <c r="AL21" s="43"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
@@ -5387,22 +5387,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="70" t="s">
         <v>90</v>
       </c>
       <c r="R22" s="43"/>
@@ -5411,20 +5411,20 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="44"/>
-      <c r="X22" s="68"/>
+      <c r="X22" s="53"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="51"/>
+      <c r="AE22" s="56"/>
       <c r="AF22" s="43"/>
       <c r="AG22" s="44"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="68"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="53"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
@@ -5461,22 +5461,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="24"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="70" t="s">
         <v>32</v>
       </c>
       <c r="R23" s="43"/>
@@ -5485,22 +5485,22 @@
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
       <c r="W23" s="44"/>
-      <c r="X23" s="68"/>
+      <c r="X23" s="53"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
       <c r="AC23" s="43"/>
       <c r="AD23" s="44"/>
-      <c r="AE23" s="51">
+      <c r="AE23" s="56">
         <v>2</v>
       </c>
       <c r="AF23" s="43"/>
       <c r="AG23" s="44"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="74" t="s">
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="54" t="s">
         <v>87</v>
       </c>
       <c r="AL23" s="43"/>
@@ -5750,51 +5750,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="62"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="61"/>
       <c r="AC27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="75" t="s">
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="43"/>
@@ -5830,43 +5830,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="72" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="43"/>
@@ -5877,14 +5877,14 @@
       <c r="AR28" s="43"/>
       <c r="AS28" s="43"/>
       <c r="AT28" s="44"/>
-      <c r="AU28" s="72" t="s">
+      <c r="AU28" s="52" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="43"/>
       <c r="AW28" s="43"/>
       <c r="AX28" s="43"/>
       <c r="AY28" s="44"/>
-      <c r="AZ28" s="72" t="s">
+      <c r="AZ28" s="52" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="43"/>
@@ -5910,7 +5910,7 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="56" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="43"/>
@@ -5921,26 +5921,26 @@
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="51"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="56"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
@@ -5949,7 +5949,7 @@
       <c r="AI29" s="43"/>
       <c r="AJ29" s="43"/>
       <c r="AK29" s="44"/>
-      <c r="AL29" s="49"/>
+      <c r="AL29" s="72"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
@@ -5958,12 +5958,12 @@
       <c r="AR29" s="43"/>
       <c r="AS29" s="43"/>
       <c r="AT29" s="44"/>
-      <c r="AU29" s="49"/>
+      <c r="AU29" s="72"/>
       <c r="AV29" s="43"/>
       <c r="AW29" s="43"/>
       <c r="AX29" s="43"/>
       <c r="AY29" s="44"/>
-      <c r="AZ29" s="50"/>
+      <c r="AZ29" s="73"/>
       <c r="BA29" s="43"/>
       <c r="BB29" s="43"/>
       <c r="BC29" s="43"/>
@@ -5987,37 +5987,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="51" t="s">
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="51"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="56"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
@@ -6026,7 +6026,7 @@
       <c r="AI30" s="43"/>
       <c r="AJ30" s="43"/>
       <c r="AK30" s="44"/>
-      <c r="AL30" s="49"/>
+      <c r="AL30" s="72"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
@@ -6035,12 +6035,12 @@
       <c r="AR30" s="43"/>
       <c r="AS30" s="43"/>
       <c r="AT30" s="44"/>
-      <c r="AU30" s="49"/>
+      <c r="AU30" s="72"/>
       <c r="AV30" s="43"/>
       <c r="AW30" s="43"/>
       <c r="AX30" s="43"/>
       <c r="AY30" s="44"/>
-      <c r="AZ30" s="50"/>
+      <c r="AZ30" s="73"/>
       <c r="BA30" s="43"/>
       <c r="BB30" s="43"/>
       <c r="BC30" s="43"/>
@@ -7476,6 +7476,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="AK14:BO14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="X14:AD14"/>
@@ -7492,72 +7558,6 @@
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.8.ツールAPI.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8263427-4923-4966-8220-498B7ED01F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B4394-DC8C-48D7-B0AD-DEDC80D43FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="255" windowWidth="21435" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="135" windowWidth="21435" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="1.機能一覧" sheetId="2" r:id="rId2"/>
     <sheet name="2.1.権限マスタ一覧取得API" sheetId="5" r:id="rId3"/>
-    <sheet name="データ入力例" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="白紙" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="2.2.問い合わせマスタ一覧取得API" sheetId="9" r:id="rId4"/>
+    <sheet name="データ入力例" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="白紙" sheetId="8" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.権限マスタ一覧取得API'!$A$1:$BP$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.問い合わせマスタ一覧取得API'!$A$1:$BP$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>更新日時</t>
   </si>
@@ -260,10 +262,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>error</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>message</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -428,6 +426,112 @@
   </si>
   <si>
     <t>エンドポイント</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/inquiry/status</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>00：未対応
+01：対応中
+02：完了</t>
+    <rPh sb="3" eb="6">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせステータスマスタ検索</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.3.1.問い合わせステータスマスタ検索 参照</t>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.1.API仕様 参照</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>statuses</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.3.1.問い合わせステータスマスタ検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INQUIRY_STATUS_MT</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  INQUIRY_STATUS;</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>result=0の場合、設定あり</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.2.問い合わせマスタ一覧取得API 追加</t>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせステータスマスタの一覧を取得する</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.2.問い合わせマスタ一覧取得API</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -819,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -947,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -956,31 +1063,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -990,40 +1110,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1247,7 +1354,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1320,19 +1427,19 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="43"/>
@@ -1355,13 +1462,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>44360</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="43"/>
@@ -1390,7 +1497,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>45088</v>
       </c>
       <c r="C5" s="43"/>
@@ -1404,7 +1511,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="44"/>
       <c r="J5" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -1426,7 +1533,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="48">
+      <c r="B6" s="45">
         <v>45880</v>
       </c>
       <c r="C6" s="43"/>
@@ -1440,7 +1547,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="44"/>
       <c r="J6" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
@@ -1462,18 +1569,22 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="45">
+        <v>45886</v>
+      </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1.03</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -2128,12 +2239,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2143,60 +2302,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2209,7 +2320,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW31"/>
+  <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2327,7 +2438,7 @@
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2432,7 +2543,9 @@
     </row>
     <row r="5" spans="1:49" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="76" t="s">
+        <v>107</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2484,7 +2597,9 @@
     <row r="6" spans="1:49" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3807,10 +3922,164 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
     </row>
+    <row r="32" spans="1:49" ht="15.75" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+    </row>
+    <row r="33" spans="1:49" ht="15.75" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+    </row>
+    <row r="34" spans="1:49" ht="15.75" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <hyperlinks>
     <hyperlink ref="B3" location="'2.1.権限マスタ一覧取得API'!A1" display="1.1.権限マスタ一覧取得API" xr:uid="{A216CAB4-AC48-448D-87B0-445C576A81B3}"/>
+    <hyperlink ref="B5" location="'2.2.問い合わせマスタ一覧取得API'!A1" display="1.2.問い合わせマスタ一覧取得API" xr:uid="{80CFB8D6-7CCC-4906-8157-481B0F44CD9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
@@ -3824,7 +4093,7 @@
   </sheetPr>
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4262,7 +4531,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="70" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="43"/>
@@ -4270,7 +4539,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="43"/>
@@ -4336,7 +4605,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="43"/>
@@ -4344,7 +4613,7 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="43"/>
@@ -4410,7 +4679,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="43"/>
@@ -4418,7 +4687,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="51" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="43"/>
@@ -4484,75 +4753,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="51" t="s">
-        <v>93</v>
+      <c r="C10" s="70" t="s">
+        <v>92</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>83</v>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="53" t="s">
+        <v>82</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
+      <c r="BO10" s="53"/>
       <c r="BP10" s="34"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -4631,83 +4900,83 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="65"/>
-      <c r="BL12" s="65"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69"/>
       <c r="BO12" s="44"/>
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -4776,7 +5045,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="43"/>
@@ -4792,7 +5061,7 @@
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="46" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="43"/>
@@ -4801,7 +5070,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
       <c r="W14" s="44"/>
-      <c r="X14" s="45" t="s">
+      <c r="X14" s="46" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="43"/>
@@ -4810,7 +5079,7 @@
       <c r="AB14" s="43"/>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
-      <c r="AE14" s="51" t="s">
+      <c r="AE14" s="70" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="43"/>
@@ -4820,7 +5089,7 @@
       </c>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="45" t="s">
+      <c r="AK14" s="46" t="s">
         <v>30</v>
       </c>
       <c r="AL14" s="43"/>
@@ -4858,7 +5127,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -4872,27 +5141,27 @@
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="53"/>
+      <c r="Q15" s="68"/>
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
-      <c r="X15" s="53"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
-      <c r="AE15" s="56"/>
+      <c r="AE15" s="51"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="44"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="53"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
@@ -4927,11 +5196,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5000,7 +5269,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="43"/>
@@ -5016,7 +5285,7 @@
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="44"/>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="46" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="43"/>
@@ -5025,7 +5294,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="45" t="s">
+      <c r="X17" s="46" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="43"/>
@@ -5034,7 +5303,7 @@
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
       <c r="AD17" s="44"/>
-      <c r="AE17" s="51" t="s">
+      <c r="AE17" s="70" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="43"/>
@@ -5044,7 +5313,7 @@
       </c>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="45" t="s">
+      <c r="AK17" s="46" t="s">
         <v>30</v>
       </c>
       <c r="AL17" s="43"/>
@@ -5082,23 +5351,23 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="53" t="s">
+      <c r="Q18" s="68" t="s">
         <v>32</v>
       </c>
       <c r="R18" s="43"/>
@@ -5107,7 +5376,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
-      <c r="X18" s="53" t="s">
+      <c r="X18" s="68" t="s">
         <v>33</v>
       </c>
       <c r="Y18" s="43"/>
@@ -5116,16 +5385,16 @@
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
       <c r="AD18" s="44"/>
-      <c r="AE18" s="56">
+      <c r="AE18" s="51">
         <v>1</v>
       </c>
       <c r="AF18" s="43"/>
       <c r="AG18" s="44"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="54" t="s">
-        <v>73</v>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="74" t="s">
+        <v>72</v>
       </c>
       <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
@@ -5163,7 +5432,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="26" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5178,14 +5447,14 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="53"/>
+      <c r="Q19" s="68"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="43"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
-      <c r="X19" s="53" t="s">
+      <c r="X19" s="68" t="s">
         <v>40</v>
       </c>
       <c r="Y19" s="43"/>
@@ -5194,44 +5463,46 @@
       <c r="AB19" s="43"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="44"/>
-      <c r="AE19" s="56"/>
+      <c r="AE19" s="51"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="44"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="53" t="s">
-        <v>77</v>
+      <c r="AH19" s="65" t="s">
+        <v>83</v>
       </c>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
       <c r="BO19" s="44"/>
       <c r="BP19" s="2"/>
     </row>
@@ -5239,23 +5510,23 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="56" t="s">
-        <v>72</v>
+      <c r="D20" s="51" t="s">
+        <v>71</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="70" t="s">
-        <v>90</v>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
@@ -5263,20 +5534,20 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
-      <c r="X20" s="53"/>
+      <c r="X20" s="68"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="44"/>
-      <c r="AE20" s="56"/>
+      <c r="AE20" s="51"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="44"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="53"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="68"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
@@ -5313,7 +5584,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -5328,58 +5599,62 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="70"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
       <c r="T21" s="43"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
-      <c r="X21" s="53"/>
+      <c r="X21" s="68" t="s">
+        <v>40</v>
+      </c>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="44"/>
-      <c r="AE21" s="56"/>
+      <c r="AE21" s="51"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="44"/>
-      <c r="AH21" s="57" t="s">
-        <v>84</v>
+      <c r="AH21" s="65" t="s">
+        <v>83</v>
       </c>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="43"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="43"/>
-      <c r="AV21" s="43"/>
-      <c r="AW21" s="43"/>
-      <c r="AX21" s="43"/>
-      <c r="AY21" s="43"/>
-      <c r="AZ21" s="43"/>
-      <c r="BA21" s="43"/>
-      <c r="BB21" s="43"/>
-      <c r="BC21" s="43"/>
-      <c r="BD21" s="43"/>
-      <c r="BE21" s="43"/>
-      <c r="BF21" s="43"/>
-      <c r="BG21" s="43"/>
-      <c r="BH21" s="43"/>
-      <c r="BI21" s="43"/>
-      <c r="BJ21" s="43"/>
-      <c r="BK21" s="43"/>
-      <c r="BL21" s="43"/>
-      <c r="BM21" s="43"/>
-      <c r="BN21" s="43"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="69"/>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
       <c r="BO21" s="44"/>
       <c r="BP21" s="2"/>
     </row>
@@ -5387,23 +5662,23 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="56" t="s">
-        <v>75</v>
+      <c r="D22" s="51" t="s">
+        <v>74</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="70" t="s">
-        <v>90</v>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
@@ -5411,20 +5686,20 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="44"/>
-      <c r="X22" s="53"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="56"/>
+      <c r="AE22" s="51"/>
       <c r="AF22" s="43"/>
       <c r="AG22" s="44"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="53"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="68"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
@@ -5461,22 +5736,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="24"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="56" t="s">
-        <v>76</v>
+      <c r="D23" s="51" t="s">
+        <v>75</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="70" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>32</v>
       </c>
       <c r="R23" s="43"/>
@@ -5485,23 +5760,23 @@
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
       <c r="W23" s="44"/>
-      <c r="X23" s="53"/>
+      <c r="X23" s="68"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
       <c r="AC23" s="43"/>
       <c r="AD23" s="44"/>
-      <c r="AE23" s="56">
+      <c r="AE23" s="51">
         <v>2</v>
       </c>
       <c r="AF23" s="43"/>
       <c r="AG23" s="44"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="54" t="s">
-        <v>87</v>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="74" t="s">
+        <v>86</v>
       </c>
       <c r="AL23" s="43"/>
       <c r="AM23" s="43"/>
@@ -5750,51 +6025,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
       <c r="AC27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="55" t="s">
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="75" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="43"/>
@@ -5830,43 +6105,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="52" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="72" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="43"/>
@@ -5877,14 +6152,14 @@
       <c r="AR28" s="43"/>
       <c r="AS28" s="43"/>
       <c r="AT28" s="44"/>
-      <c r="AU28" s="52" t="s">
+      <c r="AU28" s="72" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="43"/>
       <c r="AW28" s="43"/>
       <c r="AX28" s="43"/>
       <c r="AY28" s="44"/>
-      <c r="AZ28" s="52" t="s">
+      <c r="AZ28" s="72" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="43"/>
@@ -5910,8 +6185,8 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>85</v>
+      <c r="C29" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -5921,26 +6196,26 @@
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="74" t="s">
-        <v>86</v>
+      <c r="L29" s="52" t="s">
+        <v>85</v>
       </c>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="56"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="51"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
@@ -5949,7 +6224,7 @@
       <c r="AI29" s="43"/>
       <c r="AJ29" s="43"/>
       <c r="AK29" s="44"/>
-      <c r="AL29" s="72"/>
+      <c r="AL29" s="49"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
@@ -5958,12 +6233,12 @@
       <c r="AR29" s="43"/>
       <c r="AS29" s="43"/>
       <c r="AT29" s="44"/>
-      <c r="AU29" s="72"/>
+      <c r="AU29" s="49"/>
       <c r="AV29" s="43"/>
       <c r="AW29" s="43"/>
       <c r="AX29" s="43"/>
       <c r="AY29" s="44"/>
-      <c r="AZ29" s="73"/>
+      <c r="AZ29" s="50"/>
       <c r="BA29" s="43"/>
       <c r="BB29" s="43"/>
       <c r="BC29" s="43"/>
@@ -5987,37 +6262,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="56"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="51"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
@@ -6026,7 +6301,7 @@
       <c r="AI30" s="43"/>
       <c r="AJ30" s="43"/>
       <c r="AK30" s="44"/>
-      <c r="AL30" s="72"/>
+      <c r="AL30" s="49"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
@@ -6035,12 +6310,12 @@
       <c r="AR30" s="43"/>
       <c r="AS30" s="43"/>
       <c r="AT30" s="44"/>
-      <c r="AU30" s="72"/>
+      <c r="AU30" s="49"/>
       <c r="AV30" s="43"/>
       <c r="AW30" s="43"/>
       <c r="AX30" s="43"/>
       <c r="AY30" s="44"/>
-      <c r="AZ30" s="73"/>
+      <c r="AZ30" s="50"/>
       <c r="BA30" s="43"/>
       <c r="BB30" s="43"/>
       <c r="BC30" s="43"/>
@@ -6274,7 +6549,7 @@
     <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6419,7 +6694,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6563,7 +6838,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -7476,56 +7751,22 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="Q17:W17"/>
     <mergeCell ref="AU28:AY28"/>
     <mergeCell ref="AZ28:BO28"/>
     <mergeCell ref="AC27:AK28"/>
@@ -7542,22 +7783,56 @@
     <mergeCell ref="AK22:BO22"/>
     <mergeCell ref="AK23:BO23"/>
     <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7601,6 +7876,3939 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F34E9E1-05BE-45A5-BF55-E26D59EA5A9C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:BP52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="68" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" ht="16.5">
+      <c r="A1" s="32" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>2.2.問い合わせマスタ一覧取得API</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+    </row>
+    <row r="2" spans="1:68" ht="16.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+    </row>
+    <row r="3" spans="1:68" ht="16.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+    </row>
+    <row r="4" spans="1:68" ht="16.5">
+      <c r="A4" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"1.API仕様"</f>
+        <v>2.2.1.API仕様</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+    </row>
+    <row r="5" spans="1:68" ht="16.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+    </row>
+    <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="2"/>
+    </row>
+    <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="44"/>
+      <c r="BP7" s="2"/>
+    </row>
+    <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="43"/>
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="43"/>
+      <c r="BG8" s="43"/>
+      <c r="BH8" s="43"/>
+      <c r="BI8" s="43"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
+      <c r="BL8" s="43"/>
+      <c r="BM8" s="43"/>
+      <c r="BN8" s="43"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="2"/>
+    </row>
+    <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43"/>
+      <c r="BO9" s="44"/>
+      <c r="BP9" s="2"/>
+    </row>
+    <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
+      <c r="BO10" s="53"/>
+      <c r="BP10" s="34"/>
+    </row>
+    <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="36"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="2"/>
+    </row>
+    <row r="12" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="2"/>
+    </row>
+    <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="12"/>
+      <c r="BP13" s="2"/>
+    </row>
+    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="44"/>
+      <c r="BP14" s="2"/>
+    </row>
+    <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="2"/>
+    </row>
+    <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="2"/>
+    </row>
+    <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="43"/>
+      <c r="BF17" s="43"/>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="43"/>
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
+      <c r="BL17" s="43"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="43"/>
+      <c r="BO17" s="44"/>
+      <c r="BP17" s="2"/>
+    </row>
+    <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="43"/>
+      <c r="BE18" s="43"/>
+      <c r="BF18" s="43"/>
+      <c r="BG18" s="43"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="43"/>
+      <c r="BJ18" s="43"/>
+      <c r="BK18" s="43"/>
+      <c r="BL18" s="43"/>
+      <c r="BM18" s="43"/>
+      <c r="BN18" s="43"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="2"/>
+    </row>
+    <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
+      <c r="BO19" s="44"/>
+      <c r="BP19" s="2"/>
+    </row>
+    <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="43"/>
+      <c r="AW20" s="43"/>
+      <c r="AX20" s="43"/>
+      <c r="AY20" s="43"/>
+      <c r="AZ20" s="43"/>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="43"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="43"/>
+      <c r="BF20" s="43"/>
+      <c r="BG20" s="43"/>
+      <c r="BH20" s="43"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="43"/>
+      <c r="BL20" s="43"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="43"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="2"/>
+    </row>
+    <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="69"/>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
+      <c r="BO21" s="44"/>
+      <c r="BP21" s="2"/>
+    </row>
+    <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+      <c r="AY22" s="43"/>
+      <c r="AZ22" s="43"/>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="43"/>
+      <c r="BC22" s="43"/>
+      <c r="BD22" s="43"/>
+      <c r="BE22" s="43"/>
+      <c r="BF22" s="43"/>
+      <c r="BG22" s="43"/>
+      <c r="BH22" s="43"/>
+      <c r="BI22" s="43"/>
+      <c r="BJ22" s="43"/>
+      <c r="BK22" s="43"/>
+      <c r="BL22" s="43"/>
+      <c r="BM22" s="43"/>
+      <c r="BN22" s="43"/>
+      <c r="BO22" s="44"/>
+      <c r="BP22" s="2"/>
+    </row>
+    <row r="23" spans="1:68" ht="51" customHeight="1" outlineLevel="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="51">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="44"/>
+      <c r="BP23" s="2"/>
+    </row>
+    <row r="24" spans="1:68" ht="16.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+    </row>
+    <row r="25" spans="1:68" ht="16.5">
+      <c r="A25" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.2.2.処理詳細</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+      <c r="BO25" s="4"/>
+      <c r="BP25" s="4"/>
+    </row>
+    <row r="26" spans="1:68" ht="16.5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+    </row>
+    <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+      <c r="BO27" s="44"/>
+      <c r="BP27" s="2"/>
+    </row>
+    <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="43"/>
+      <c r="BD28" s="43"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="43"/>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="43"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="43"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="2"/>
+    </row>
+    <row r="29" spans="1:68" ht="69.75" customHeight="1" outlineLevel="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="31">
+        <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="43"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="43"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="43"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="2"/>
+    </row>
+    <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="31">
+        <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="43"/>
+      <c r="BD30" s="43"/>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="43"/>
+      <c r="BG30" s="43"/>
+      <c r="BH30" s="43"/>
+      <c r="BI30" s="43"/>
+      <c r="BJ30" s="43"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="43"/>
+      <c r="BM30" s="43"/>
+      <c r="BN30" s="43"/>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="2"/>
+    </row>
+    <row r="31" spans="1:68" ht="16.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+    </row>
+    <row r="32" spans="1:68" ht="16.5">
+      <c r="A32" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.2.3.DB処理</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+    </row>
+    <row r="33" spans="1:68" ht="16.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+    </row>
+    <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+    </row>
+    <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+    </row>
+    <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+    </row>
+    <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+    </row>
+    <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+    </row>
+    <row r="39" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+    </row>
+    <row r="40" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+    </row>
+    <row r="41" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+    </row>
+    <row r="42" spans="1:68" ht="16.5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+    </row>
+    <row r="43" spans="1:68" ht="16.5">
+      <c r="A43" s="8" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.2.4.備考</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+    </row>
+    <row r="44" spans="1:68" ht="16.5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+    </row>
+    <row r="45" spans="1:68" ht="16.5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+    </row>
+    <row r="46" spans="1:68" ht="16.5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+    </row>
+    <row r="47" spans="1:68" ht="16.5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+    </row>
+    <row r="48" spans="1:68" ht="16.5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+    </row>
+    <row r="49" spans="1:68" ht="16.5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+    </row>
+    <row r="50" spans="1:68" ht="16.5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
+    </row>
+    <row r="51" spans="1:68" ht="16.5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
+    </row>
+    <row r="52" spans="1:68" ht="16.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52" s="2"/>
+      <c r="BM52" s="2"/>
+      <c r="BN52" s="2"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="AH15 AH18:AH23" xr:uid="{863216EF-D37C-4A06-AA7F-B0C23D81192D}">
+      <formula1>"○"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="3" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
+    <brk id="31" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
+  </rowBreaks>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D83A0550-D630-4A8F-9659-934070F5B50A}">
+          <x14:formula1>
+            <xm:f>データ入力例!$C$1:$C$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>X15 X18:X23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5A47EE29-BB83-4DE4-A793-429B38E3C21B}">
+          <x14:formula1>
+            <xm:f>データ入力例!$B$1:$B$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q15 Q18:Q23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B6A926DD-6092-41F2-8D73-0BE6D5A280C2}">
+          <x14:formula1>
+            <xm:f>データ入力例!$D$1:$D$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>I7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB7B7B7"/>
@@ -7730,7 +11938,7 @@
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -7964,7 +12172,7 @@
     <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -8013,7 +12221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
